--- a/testdata/Api excel.xlsx
+++ b/testdata/Api excel.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91891\eclipse-workspace\ApiFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A200A03-86AE-4500-A914-3991ACE1704E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2476D5-7FCA-47C1-8D72-5C5DAE3C6647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D1AC091C-8276-4B54-A5A2-2FE00A1D5A1C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D1AC091C-8276-4B54-A5A2-2FE00A1D5A1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>UserID</t>
   </si>
@@ -100,6 +101,15 @@
   </si>
   <si>
     <t>test@3</t>
+  </si>
+  <si>
+    <t>jihemojbr0hmcght3url3i1s5f</t>
+  </si>
+  <si>
+    <t>proxyPort</t>
+  </si>
+  <si>
+    <t>apiKey</t>
   </si>
 </sst>
 </file>
@@ -473,7 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B271F6-6F74-4695-BFD9-0D0274A65F54}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
@@ -587,4 +597,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A131D562-DF17-4BCD-B803-A183994B3C85}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>8081</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>